--- a/Excel Sheet/XC4VLX80 FF1148.xlsx
+++ b/Excel Sheet/XC4VLX80 FF1148.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11905" uniqueCount="2270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11905" uniqueCount="2362">
   <si>
     <t>HSWAPEN_0</t>
   </si>
@@ -6828,6 +6828,282 @@
   </si>
   <si>
     <t>VCCAUX/RSVD</t>
+  </si>
+  <si>
+    <t>VCCINT_K7</t>
+  </si>
+  <si>
+    <t>VCCINT_AB7</t>
+  </si>
+  <si>
+    <t>VCCINT_AF9</t>
+  </si>
+  <si>
+    <t>VCCINT_L10</t>
+  </si>
+  <si>
+    <t>VCCINT_K11</t>
+  </si>
+  <si>
+    <t>VCCINT_AB11</t>
+  </si>
+  <si>
+    <t>VCCINT_J12</t>
+  </si>
+  <si>
+    <t>VCCINT_L12</t>
+  </si>
+  <si>
+    <t>VCCINT_R12</t>
+  </si>
+  <si>
+    <t>VCCINT_AC12</t>
+  </si>
+  <si>
+    <t>VCCINT_AE12</t>
+  </si>
+  <si>
+    <t>VCCINT_K13</t>
+  </si>
+  <si>
+    <t>VCCINT_M13</t>
+  </si>
+  <si>
+    <t>VCCINT_T13</t>
+  </si>
+  <si>
+    <t>VCCINT_AD13</t>
+  </si>
+  <si>
+    <t>VCCINT_AF13</t>
+  </si>
+  <si>
+    <t>VCCINT_AH13</t>
+  </si>
+  <si>
+    <t>VCCINT_N14</t>
+  </si>
+  <si>
+    <t>VCCINT_R14</t>
+  </si>
+  <si>
+    <t>VCCINT_W14</t>
+  </si>
+  <si>
+    <t>VCCINT_AC14</t>
+  </si>
+  <si>
+    <t>VCCINT_AE14</t>
+  </si>
+  <si>
+    <t>VCCINT_M15</t>
+  </si>
+  <si>
+    <t>VCCINT_P15</t>
+  </si>
+  <si>
+    <t>VCCINT_T15</t>
+  </si>
+  <si>
+    <t>VCCINT_V15</t>
+  </si>
+  <si>
+    <t>VCCINT_AD15</t>
+  </si>
+  <si>
+    <t>VCCINT_AH15</t>
+  </si>
+  <si>
+    <t>VCCINT_J16</t>
+  </si>
+  <si>
+    <t>VCCINT_R16</t>
+  </si>
+  <si>
+    <t>VCCINT_W16</t>
+  </si>
+  <si>
+    <t>VCCINT_AA16</t>
+  </si>
+  <si>
+    <t>VCCINT_P17</t>
+  </si>
+  <si>
+    <t>VCCINT_V17</t>
+  </si>
+  <si>
+    <t>VCCINT_U18</t>
+  </si>
+  <si>
+    <t>VCCINT_AA18</t>
+  </si>
+  <si>
+    <t>VCCINT_AC18</t>
+  </si>
+  <si>
+    <t>VCCINT_P19</t>
+  </si>
+  <si>
+    <t>VCCINT_T19</t>
+  </si>
+  <si>
+    <t>VCCINT_Y19</t>
+  </si>
+  <si>
+    <t>VCCINT_AF19</t>
+  </si>
+  <si>
+    <t>VCCINT_G20</t>
+  </si>
+  <si>
+    <t>VCCINT_L20</t>
+  </si>
+  <si>
+    <t>VCCINT_U20</t>
+  </si>
+  <si>
+    <t>VCCINT_AA20</t>
+  </si>
+  <si>
+    <t>VCCINT_AC20</t>
+  </si>
+  <si>
+    <t>VCCINT_K21</t>
+  </si>
+  <si>
+    <t>VCCINT_M21</t>
+  </si>
+  <si>
+    <t>VCCINT_T21</t>
+  </si>
+  <si>
+    <t>VCCINT_Y21</t>
+  </si>
+  <si>
+    <t>VCCINT_AB21</t>
+  </si>
+  <si>
+    <t>VCCINT_G22</t>
+  </si>
+  <si>
+    <t>VCCINT_J22</t>
+  </si>
+  <si>
+    <t>VCCINT_L22</t>
+  </si>
+  <si>
+    <t>VCCINT_W22</t>
+  </si>
+  <si>
+    <t>VCCINT_AC22</t>
+  </si>
+  <si>
+    <t>VCCINT_AE22</t>
+  </si>
+  <si>
+    <t>VCCINT_K23</t>
+  </si>
+  <si>
+    <t>VCCINT_M23</t>
+  </si>
+  <si>
+    <t>VCCINT_Y23</t>
+  </si>
+  <si>
+    <t>VCCINT_AD23</t>
+  </si>
+  <si>
+    <t>VCCINT_AF23</t>
+  </si>
+  <si>
+    <t>VCCINT_N24</t>
+  </si>
+  <si>
+    <t>VCCINT_AE24</t>
+  </si>
+  <si>
+    <t>VCCINT_AD25</t>
+  </si>
+  <si>
+    <t>VCCINT_J26</t>
+  </si>
+  <si>
+    <t>VCCINT_N28</t>
+  </si>
+  <si>
+    <t>VCCINT_AE28</t>
+  </si>
+  <si>
+    <t>VCCAUX_N8</t>
+  </si>
+  <si>
+    <t>VCCAUX_F9</t>
+  </si>
+  <si>
+    <t>VCCAUX_T9</t>
+  </si>
+  <si>
+    <t>VCCAUX_AH9</t>
+  </si>
+  <si>
+    <t>VCCAUX_J10</t>
+  </si>
+  <si>
+    <t>VCCAUX_AA10</t>
+  </si>
+  <si>
+    <t>VCCAUX_M11</t>
+  </si>
+  <si>
+    <t>VCCAUX_AD11</t>
+  </si>
+  <si>
+    <t>VCCAUX_AG12</t>
+  </si>
+  <si>
+    <t>VCCAUX_U16</t>
+  </si>
+  <si>
+    <t>VCCAUX_AJ16</t>
+  </si>
+  <si>
+    <t>VCCAUX_Y17</t>
+  </si>
+  <si>
+    <t>VCCAUX_R18</t>
+  </si>
+  <si>
+    <t>VCCAUX_F19</t>
+  </si>
+  <si>
+    <t>VCCAUX_V19</t>
+  </si>
+  <si>
+    <t>VCCAUX_H23</t>
+  </si>
+  <si>
+    <t>VCCAUX_L24</t>
+  </si>
+  <si>
+    <t>VCCAUX_AC24</t>
+  </si>
+  <si>
+    <t>VCCAUX_P25</t>
+  </si>
+  <si>
+    <t>VCCAUX_AF25</t>
+  </si>
+  <si>
+    <t>VCCAUX_G26</t>
+  </si>
+  <si>
+    <t>VCCAUX_W26</t>
+  </si>
+  <si>
+    <t>VCCAUX_AJ26</t>
+  </si>
+  <si>
+    <t>VCCAUX_AB27</t>
   </si>
 </sst>
 </file>
@@ -30222,8 +30498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:FF147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="EY2" sqref="EY2:FF2"/>
+    <sheetView tabSelected="1" topLeftCell="EF13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="EP4" sqref="EP4:EV39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31140,7 +31416,7 @@
         <v>1747</v>
       </c>
       <c r="EQ4" t="s">
-        <v>1746</v>
+        <v>2338</v>
       </c>
       <c r="ER4" t="s">
         <v>1995</v>
@@ -31158,7 +31434,7 @@
         <v>1772</v>
       </c>
       <c r="EZ4" t="s">
-        <v>1771</v>
+        <v>2270</v>
       </c>
       <c r="FA4" t="s">
         <v>1995</v>
@@ -31466,7 +31742,7 @@
         <v>1748</v>
       </c>
       <c r="EQ5" t="s">
-        <v>1746</v>
+        <v>2339</v>
       </c>
       <c r="ER5" t="s">
         <v>1995</v>
@@ -31484,7 +31760,7 @@
         <v>1773</v>
       </c>
       <c r="EZ5" t="s">
-        <v>1771</v>
+        <v>2271</v>
       </c>
       <c r="FA5" t="s">
         <v>1995</v>
@@ -31792,7 +32068,7 @@
         <v>1749</v>
       </c>
       <c r="EQ6" t="s">
-        <v>1746</v>
+        <v>2340</v>
       </c>
       <c r="ER6" t="s">
         <v>1995</v>
@@ -31810,7 +32086,7 @@
         <v>1774</v>
       </c>
       <c r="EZ6" t="s">
-        <v>1771</v>
+        <v>2272</v>
       </c>
       <c r="FA6" t="s">
         <v>1995</v>
@@ -32118,7 +32394,7 @@
         <v>1750</v>
       </c>
       <c r="EQ7" t="s">
-        <v>1746</v>
+        <v>2341</v>
       </c>
       <c r="ER7" t="s">
         <v>1995</v>
@@ -32136,7 +32412,7 @@
         <v>1775</v>
       </c>
       <c r="EZ7" t="s">
-        <v>1771</v>
+        <v>2273</v>
       </c>
       <c r="FA7" t="s">
         <v>1995</v>
@@ -32444,7 +32720,7 @@
         <v>1751</v>
       </c>
       <c r="EQ8" t="s">
-        <v>1746</v>
+        <v>2342</v>
       </c>
       <c r="ER8" t="s">
         <v>1995</v>
@@ -32462,7 +32738,7 @@
         <v>1776</v>
       </c>
       <c r="EZ8" t="s">
-        <v>1771</v>
+        <v>2274</v>
       </c>
       <c r="FA8" t="s">
         <v>1995</v>
@@ -32770,7 +33046,7 @@
         <v>1752</v>
       </c>
       <c r="EQ9" t="s">
-        <v>1746</v>
+        <v>2343</v>
       </c>
       <c r="ER9" t="s">
         <v>1995</v>
@@ -32788,7 +33064,7 @@
         <v>1777</v>
       </c>
       <c r="EZ9" t="s">
-        <v>1771</v>
+        <v>2275</v>
       </c>
       <c r="FA9" t="s">
         <v>1995</v>
@@ -33096,7 +33372,7 @@
         <v>1753</v>
       </c>
       <c r="EQ10" t="s">
-        <v>1746</v>
+        <v>2344</v>
       </c>
       <c r="ER10" t="s">
         <v>1995</v>
@@ -33114,7 +33390,7 @@
         <v>1778</v>
       </c>
       <c r="EZ10" t="s">
-        <v>1771</v>
+        <v>2276</v>
       </c>
       <c r="FA10" t="s">
         <v>1995</v>
@@ -33422,7 +33698,7 @@
         <v>1754</v>
       </c>
       <c r="EQ11" t="s">
-        <v>1746</v>
+        <v>2345</v>
       </c>
       <c r="ER11" t="s">
         <v>1995</v>
@@ -33440,7 +33716,7 @@
         <v>1779</v>
       </c>
       <c r="EZ11" t="s">
-        <v>1771</v>
+        <v>2277</v>
       </c>
       <c r="FA11" t="s">
         <v>1995</v>
@@ -33748,7 +34024,7 @@
         <v>1755</v>
       </c>
       <c r="EQ12" t="s">
-        <v>1746</v>
+        <v>2346</v>
       </c>
       <c r="ER12" t="s">
         <v>1995</v>
@@ -33766,7 +34042,7 @@
         <v>1780</v>
       </c>
       <c r="EZ12" t="s">
-        <v>1771</v>
+        <v>2278</v>
       </c>
       <c r="FA12" t="s">
         <v>1995</v>
@@ -34074,7 +34350,7 @@
         <v>1756</v>
       </c>
       <c r="EQ13" t="s">
-        <v>1746</v>
+        <v>2347</v>
       </c>
       <c r="ER13" t="s">
         <v>1995</v>
@@ -34092,7 +34368,7 @@
         <v>1781</v>
       </c>
       <c r="EZ13" t="s">
-        <v>1771</v>
+        <v>2279</v>
       </c>
       <c r="FA13" t="s">
         <v>1995</v>
@@ -34400,7 +34676,7 @@
         <v>1757</v>
       </c>
       <c r="EQ14" t="s">
-        <v>1746</v>
+        <v>2348</v>
       </c>
       <c r="ER14" t="s">
         <v>1995</v>
@@ -34418,7 +34694,7 @@
         <v>1782</v>
       </c>
       <c r="EZ14" t="s">
-        <v>1771</v>
+        <v>2280</v>
       </c>
       <c r="FA14" t="s">
         <v>1995</v>
@@ -34726,7 +35002,7 @@
         <v>1758</v>
       </c>
       <c r="EQ15" t="s">
-        <v>1746</v>
+        <v>2349</v>
       </c>
       <c r="ER15" t="s">
         <v>1995</v>
@@ -34744,7 +35020,7 @@
         <v>1783</v>
       </c>
       <c r="EZ15" t="s">
-        <v>1771</v>
+        <v>2281</v>
       </c>
       <c r="FA15" t="s">
         <v>1995</v>
@@ -35052,7 +35328,7 @@
         <v>1759</v>
       </c>
       <c r="EQ16" t="s">
-        <v>1746</v>
+        <v>2350</v>
       </c>
       <c r="ER16" t="s">
         <v>1995</v>
@@ -35070,7 +35346,7 @@
         <v>1784</v>
       </c>
       <c r="EZ16" t="s">
-        <v>1771</v>
+        <v>2282</v>
       </c>
       <c r="FA16" t="s">
         <v>1995</v>
@@ -35378,7 +35654,7 @@
         <v>1760</v>
       </c>
       <c r="EQ17" t="s">
-        <v>1746</v>
+        <v>2351</v>
       </c>
       <c r="ER17" t="s">
         <v>1995</v>
@@ -35396,7 +35672,7 @@
         <v>1785</v>
       </c>
       <c r="EZ17" t="s">
-        <v>1771</v>
+        <v>2283</v>
       </c>
       <c r="FA17" t="s">
         <v>1995</v>
@@ -35704,7 +35980,7 @@
         <v>1761</v>
       </c>
       <c r="EQ18" t="s">
-        <v>1746</v>
+        <v>2352</v>
       </c>
       <c r="ER18" t="s">
         <v>1995</v>
@@ -35722,7 +35998,7 @@
         <v>1786</v>
       </c>
       <c r="EZ18" t="s">
-        <v>1771</v>
+        <v>2284</v>
       </c>
       <c r="FA18" t="s">
         <v>1995</v>
@@ -36030,7 +36306,7 @@
         <v>1762</v>
       </c>
       <c r="EQ19" t="s">
-        <v>1746</v>
+        <v>2353</v>
       </c>
       <c r="ER19" t="s">
         <v>1995</v>
@@ -36048,7 +36324,7 @@
         <v>1787</v>
       </c>
       <c r="EZ19" t="s">
-        <v>1771</v>
+        <v>2285</v>
       </c>
       <c r="FA19" t="s">
         <v>1995</v>
@@ -36356,7 +36632,7 @@
         <v>1763</v>
       </c>
       <c r="EQ20" t="s">
-        <v>1746</v>
+        <v>2354</v>
       </c>
       <c r="ER20" t="s">
         <v>1995</v>
@@ -36374,7 +36650,7 @@
         <v>1788</v>
       </c>
       <c r="EZ20" t="s">
-        <v>1771</v>
+        <v>2286</v>
       </c>
       <c r="FA20" t="s">
         <v>1995</v>
@@ -36682,7 +36958,7 @@
         <v>1764</v>
       </c>
       <c r="EQ21" t="s">
-        <v>1746</v>
+        <v>2355</v>
       </c>
       <c r="ER21" t="s">
         <v>1995</v>
@@ -36700,7 +36976,7 @@
         <v>1789</v>
       </c>
       <c r="EZ21" t="s">
-        <v>1771</v>
+        <v>2287</v>
       </c>
       <c r="FA21" t="s">
         <v>1995</v>
@@ -37008,7 +37284,7 @@
         <v>1765</v>
       </c>
       <c r="EQ22" t="s">
-        <v>1746</v>
+        <v>2356</v>
       </c>
       <c r="ER22" t="s">
         <v>1995</v>
@@ -37026,7 +37302,7 @@
         <v>1790</v>
       </c>
       <c r="EZ22" t="s">
-        <v>1771</v>
+        <v>2288</v>
       </c>
       <c r="FA22" t="s">
         <v>1995</v>
@@ -37334,7 +37610,7 @@
         <v>1766</v>
       </c>
       <c r="EQ23" t="s">
-        <v>1746</v>
+        <v>2357</v>
       </c>
       <c r="ER23" t="s">
         <v>1995</v>
@@ -37352,7 +37628,7 @@
         <v>1791</v>
       </c>
       <c r="EZ23" t="s">
-        <v>1771</v>
+        <v>2289</v>
       </c>
       <c r="FA23" t="s">
         <v>1995</v>
@@ -37642,7 +37918,7 @@
         <v>1767</v>
       </c>
       <c r="EQ24" t="s">
-        <v>1746</v>
+        <v>2358</v>
       </c>
       <c r="ER24" t="s">
         <v>1995</v>
@@ -37660,7 +37936,7 @@
         <v>1792</v>
       </c>
       <c r="EZ24" t="s">
-        <v>1771</v>
+        <v>2290</v>
       </c>
       <c r="FA24" t="s">
         <v>1995</v>
@@ -37950,7 +38226,7 @@
         <v>1768</v>
       </c>
       <c r="EQ25" t="s">
-        <v>1746</v>
+        <v>2359</v>
       </c>
       <c r="ER25" t="s">
         <v>1995</v>
@@ -37968,7 +38244,7 @@
         <v>1793</v>
       </c>
       <c r="EZ25" t="s">
-        <v>1771</v>
+        <v>2291</v>
       </c>
       <c r="FA25" t="s">
         <v>1995</v>
@@ -38258,7 +38534,7 @@
         <v>1769</v>
       </c>
       <c r="EQ26" t="s">
-        <v>1746</v>
+        <v>2360</v>
       </c>
       <c r="ER26" t="s">
         <v>1995</v>
@@ -38276,7 +38552,7 @@
         <v>1794</v>
       </c>
       <c r="EZ26" t="s">
-        <v>1771</v>
+        <v>2292</v>
       </c>
       <c r="FA26" t="s">
         <v>1995</v>
@@ -38566,7 +38842,7 @@
         <v>1770</v>
       </c>
       <c r="EQ27" t="s">
-        <v>1746</v>
+        <v>2361</v>
       </c>
       <c r="ER27" t="s">
         <v>1995</v>
@@ -38584,7 +38860,7 @@
         <v>1795</v>
       </c>
       <c r="EZ27" t="s">
-        <v>1771</v>
+        <v>2293</v>
       </c>
       <c r="FA27" t="s">
         <v>1995</v>
@@ -38892,7 +39168,7 @@
         <v>1796</v>
       </c>
       <c r="EZ28" t="s">
-        <v>1771</v>
+        <v>2294</v>
       </c>
       <c r="FA28" t="s">
         <v>1995</v>
@@ -39200,7 +39476,7 @@
         <v>1797</v>
       </c>
       <c r="EZ29" t="s">
-        <v>1771</v>
+        <v>2295</v>
       </c>
       <c r="FA29" t="s">
         <v>1995</v>
@@ -39508,7 +39784,7 @@
         <v>1798</v>
       </c>
       <c r="EZ30" t="s">
-        <v>1771</v>
+        <v>2296</v>
       </c>
       <c r="FA30" t="s">
         <v>1995</v>
@@ -39816,7 +40092,7 @@
         <v>1799</v>
       </c>
       <c r="EZ31" t="s">
-        <v>1771</v>
+        <v>2297</v>
       </c>
       <c r="FA31" t="s">
         <v>1995</v>
@@ -40124,7 +40400,7 @@
         <v>1800</v>
       </c>
       <c r="EZ32" t="s">
-        <v>1771</v>
+        <v>2298</v>
       </c>
       <c r="FA32" t="s">
         <v>1995</v>
@@ -40432,7 +40708,7 @@
         <v>1801</v>
       </c>
       <c r="EZ33" t="s">
-        <v>1771</v>
+        <v>2299</v>
       </c>
       <c r="FA33" t="s">
         <v>1995</v>
@@ -40740,7 +41016,7 @@
         <v>1802</v>
       </c>
       <c r="EZ34" t="s">
-        <v>1771</v>
+        <v>2300</v>
       </c>
       <c r="FA34" t="s">
         <v>1995</v>
@@ -41048,7 +41324,7 @@
         <v>1803</v>
       </c>
       <c r="EZ35" t="s">
-        <v>1771</v>
+        <v>2301</v>
       </c>
       <c r="FA35" t="s">
         <v>1995</v>
@@ -41338,7 +41614,7 @@
         <v>1804</v>
       </c>
       <c r="EZ36" t="s">
-        <v>1771</v>
+        <v>2302</v>
       </c>
       <c r="FA36" t="s">
         <v>1995</v>
@@ -41628,7 +41904,7 @@
         <v>1805</v>
       </c>
       <c r="EZ37" t="s">
-        <v>1771</v>
+        <v>2303</v>
       </c>
       <c r="FA37" t="s">
         <v>1995</v>
@@ -41918,7 +42194,7 @@
         <v>1806</v>
       </c>
       <c r="EZ38" t="s">
-        <v>1771</v>
+        <v>2304</v>
       </c>
       <c r="FA38" t="s">
         <v>1995</v>
@@ -42208,7 +42484,7 @@
         <v>1807</v>
       </c>
       <c r="EZ39" t="s">
-        <v>1771</v>
+        <v>2305</v>
       </c>
       <c r="FA39" t="s">
         <v>1995</v>
@@ -42480,7 +42756,7 @@
         <v>1808</v>
       </c>
       <c r="EZ40" t="s">
-        <v>1771</v>
+        <v>2306</v>
       </c>
       <c r="FA40" t="s">
         <v>1995</v>
@@ -42752,7 +43028,7 @@
         <v>1809</v>
       </c>
       <c r="EZ41" t="s">
-        <v>1771</v>
+        <v>2307</v>
       </c>
       <c r="FA41" t="s">
         <v>1995</v>
@@ -43024,7 +43300,7 @@
         <v>1810</v>
       </c>
       <c r="EZ42" t="s">
-        <v>1771</v>
+        <v>2308</v>
       </c>
       <c r="FA42" t="s">
         <v>1995</v>
@@ -43296,7 +43572,7 @@
         <v>1811</v>
       </c>
       <c r="EZ43" t="s">
-        <v>1771</v>
+        <v>2309</v>
       </c>
       <c r="FA43" t="s">
         <v>1995</v>
@@ -43568,7 +43844,7 @@
         <v>1812</v>
       </c>
       <c r="EZ44" t="s">
-        <v>1771</v>
+        <v>2310</v>
       </c>
       <c r="FA44" t="s">
         <v>1995</v>
@@ -43840,7 +44116,7 @@
         <v>1813</v>
       </c>
       <c r="EZ45" t="s">
-        <v>1771</v>
+        <v>2311</v>
       </c>
       <c r="FA45" t="s">
         <v>1995</v>
@@ -44112,7 +44388,7 @@
         <v>1814</v>
       </c>
       <c r="EZ46" t="s">
-        <v>1771</v>
+        <v>2312</v>
       </c>
       <c r="FA46" t="s">
         <v>1995</v>
@@ -44384,7 +44660,7 @@
         <v>1815</v>
       </c>
       <c r="EZ47" t="s">
-        <v>1771</v>
+        <v>2313</v>
       </c>
       <c r="FA47" t="s">
         <v>1995</v>
@@ -44656,7 +44932,7 @@
         <v>1816</v>
       </c>
       <c r="EZ48" t="s">
-        <v>1771</v>
+        <v>2314</v>
       </c>
       <c r="FA48" t="s">
         <v>1995</v>
@@ -44928,7 +45204,7 @@
         <v>1817</v>
       </c>
       <c r="EZ49" t="s">
-        <v>1771</v>
+        <v>2315</v>
       </c>
       <c r="FA49" t="s">
         <v>1995</v>
@@ -45200,7 +45476,7 @@
         <v>1818</v>
       </c>
       <c r="EZ50" t="s">
-        <v>1771</v>
+        <v>2316</v>
       </c>
       <c r="FA50" t="s">
         <v>1995</v>
@@ -45472,7 +45748,7 @@
         <v>1819</v>
       </c>
       <c r="EZ51" t="s">
-        <v>1771</v>
+        <v>2317</v>
       </c>
       <c r="FA51" t="s">
         <v>1995</v>
@@ -45708,7 +45984,7 @@
         <v>1820</v>
       </c>
       <c r="EZ52" t="s">
-        <v>1771</v>
+        <v>2318</v>
       </c>
       <c r="FA52" t="s">
         <v>1995</v>
@@ -45944,7 +46220,7 @@
         <v>1821</v>
       </c>
       <c r="EZ53" t="s">
-        <v>1771</v>
+        <v>2319</v>
       </c>
       <c r="FA53" t="s">
         <v>1995</v>
@@ -46180,7 +46456,7 @@
         <v>1822</v>
       </c>
       <c r="EZ54" t="s">
-        <v>1771</v>
+        <v>2320</v>
       </c>
       <c r="FA54" t="s">
         <v>1995</v>
@@ -46416,7 +46692,7 @@
         <v>1823</v>
       </c>
       <c r="EZ55" t="s">
-        <v>1771</v>
+        <v>2321</v>
       </c>
       <c r="FA55" t="s">
         <v>1995</v>
@@ -46652,7 +46928,7 @@
         <v>1824</v>
       </c>
       <c r="EZ56" t="s">
-        <v>1771</v>
+        <v>2322</v>
       </c>
       <c r="FA56" t="s">
         <v>1995</v>
@@ -46888,7 +47164,7 @@
         <v>1825</v>
       </c>
       <c r="EZ57" t="s">
-        <v>1771</v>
+        <v>2323</v>
       </c>
       <c r="FA57" t="s">
         <v>1995</v>
@@ -47124,7 +47400,7 @@
         <v>1826</v>
       </c>
       <c r="EZ58" t="s">
-        <v>1771</v>
+        <v>2324</v>
       </c>
       <c r="FA58" t="s">
         <v>1995</v>
@@ -47360,7 +47636,7 @@
         <v>1827</v>
       </c>
       <c r="EZ59" t="s">
-        <v>1771</v>
+        <v>2325</v>
       </c>
       <c r="FA59" t="s">
         <v>1995</v>
@@ -47596,7 +47872,7 @@
         <v>1828</v>
       </c>
       <c r="EZ60" t="s">
-        <v>1771</v>
+        <v>2326</v>
       </c>
       <c r="FA60" t="s">
         <v>1995</v>
@@ -47832,7 +48108,7 @@
         <v>1829</v>
       </c>
       <c r="EZ61" t="s">
-        <v>1771</v>
+        <v>2327</v>
       </c>
       <c r="FA61" t="s">
         <v>1995</v>
@@ -48068,7 +48344,7 @@
         <v>1830</v>
       </c>
       <c r="EZ62" t="s">
-        <v>1771</v>
+        <v>2328</v>
       </c>
       <c r="FA62" t="s">
         <v>1995</v>
@@ -48304,7 +48580,7 @@
         <v>1831</v>
       </c>
       <c r="EZ63" t="s">
-        <v>1771</v>
+        <v>2329</v>
       </c>
       <c r="FA63" t="s">
         <v>1995</v>
@@ -48540,7 +48816,7 @@
         <v>1832</v>
       </c>
       <c r="EZ64" t="s">
-        <v>1771</v>
+        <v>2330</v>
       </c>
       <c r="FA64" t="s">
         <v>1995</v>
@@ -48776,7 +49052,7 @@
         <v>1833</v>
       </c>
       <c r="EZ65" t="s">
-        <v>1771</v>
+        <v>2331</v>
       </c>
       <c r="FA65" t="s">
         <v>1995</v>
@@ -49012,7 +49288,7 @@
         <v>1834</v>
       </c>
       <c r="EZ66" t="s">
-        <v>1771</v>
+        <v>2332</v>
       </c>
       <c r="FA66" t="s">
         <v>1995</v>
@@ -49248,7 +49524,7 @@
         <v>1835</v>
       </c>
       <c r="EZ67" t="s">
-        <v>1771</v>
+        <v>2333</v>
       </c>
       <c r="FA67" t="s">
         <v>1995</v>
@@ -49304,7 +49580,7 @@
         <v>1836</v>
       </c>
       <c r="EZ68" t="s">
-        <v>1771</v>
+        <v>2334</v>
       </c>
       <c r="FA68" t="s">
         <v>1995</v>
@@ -49360,7 +49636,7 @@
         <v>1837</v>
       </c>
       <c r="EZ69" t="s">
-        <v>1771</v>
+        <v>2335</v>
       </c>
       <c r="FA69" t="s">
         <v>1995</v>
@@ -49416,7 +49692,7 @@
         <v>1838</v>
       </c>
       <c r="EZ70" t="s">
-        <v>1771</v>
+        <v>2336</v>
       </c>
       <c r="FA70" t="s">
         <v>1995</v>
@@ -49472,7 +49748,7 @@
         <v>1839</v>
       </c>
       <c r="EZ71" t="s">
-        <v>1771</v>
+        <v>2337</v>
       </c>
       <c r="FA71" t="s">
         <v>1995</v>
